--- a/datasets/installed_wind_capacity.xlsx
+++ b/datasets/installed_wind_capacity.xlsx
@@ -5,18 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjohann\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sambaad.stud.ntnu.no\anjohann\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3316E4-5E3C-4E17-AC7E-1E296E1B9019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2766A817-E33F-4125-8936-0E3CFE9EA529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{799EA429-A02C-486C-A602-0719BD9BF84B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{799EA429-A02C-486C-A602-0719BD9BF84B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,841 +105,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nb-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0B4-4766-891F-B86A9147BAFE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="977494320"/>
-        <c:axId val="977494976"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="977494320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="977494976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="977494976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="977494320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nb-NO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{87C51A42-D08B-4136-8B7D-91FADA9812A2}">
-  <sheetPr codeName="Chart2"/>
-  <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5902D658-9738-4ACC-81BA-D1CBC4F3587F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1241,15 +405,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73725F40-D26E-4E9A-8107-C74A02EA9D5D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B217" sqref="B206:B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +1953,7 @@
         <v>50777</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43070</v>
       </c>
@@ -2796,7 +1961,7 @@
         <v>50777</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43101</v>
       </c>
@@ -2804,7 +1969,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43132</v>
       </c>
@@ -2812,7 +1977,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>43160</v>
       </c>
@@ -2820,7 +1985,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43191</v>
       </c>
@@ -2828,7 +1993,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43221</v>
       </c>
@@ -2836,7 +2001,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43252</v>
       </c>
@@ -2844,7 +2009,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43282</v>
       </c>
@@ -2852,7 +2017,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43313</v>
       </c>
@@ -2860,7 +2025,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43344</v>
       </c>
@@ -2868,7 +2033,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43374</v>
       </c>
@@ -2876,7 +2041,7 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43405</v>
       </c>
@@ -2884,13 +2049,121 @@
         <v>52931</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>43435</v>
       </c>
       <c r="B205" s="1">
         <v>52931</v>
       </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B206" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B207" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B208" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B209" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B210" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B211" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B212" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B213" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B214" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B215" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B216" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B217" s="1">
+        <v>53912</v>
+      </c>
+      <c r="C217" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
